--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -453,13 +453,13 @@
         <v>100</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9997341051157046</v>
+        <v>0.02130412373605337</v>
       </c>
       <c r="E2">
-        <v>0.9997341051157046</v>
+        <v>0.02130412373605337</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5.317189903052584E-24</v>
+        <v>5.637221135543975E-16</v>
       </c>
       <c r="E3">
-        <v>5.317189903052584E-24</v>
+        <v>5.637221135543975E-16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>4.633705278088064E-26</v>
+        <v>6.136143485490833E-35</v>
       </c>
       <c r="E4">
-        <v>4.633705278088064E-26</v>
+        <v>6.136143485490833E-35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.761461622971468E-62</v>
+        <v>1.120076490148989E-53</v>
       </c>
       <c r="E5">
-        <v>1.761461622971468E-62</v>
+        <v>1.120076490148989E-53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2.371411256493362E-06</v>
+        <v>1.385832130780251E-09</v>
       </c>
       <c r="E6">
-        <v>2.371411256493362E-06</v>
+        <v>1.385832130780251E-09</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.855604262881036E-27</v>
+        <v>1.224215514238188E-24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.998436341735747</v>
+        <v>0.849178715801851</v>
       </c>
       <c r="E9">
-        <v>0.001563658264252976</v>
+        <v>0.150821284198149</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.113416228128156E-05</v>
+        <v>5.870366897997246E-10</v>
       </c>
       <c r="E10">
-        <v>0.9999488658377187</v>
+        <v>0.9999999994129634</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.60678526461723E-07</v>
+        <v>5.313198159106881E-08</v>
       </c>
       <c r="E11">
-        <v>0.9999996393214735</v>
+        <v>0.9999999468680184</v>
       </c>
       <c r="F11">
-        <v>9.283205986022949</v>
+        <v>9.325117111206055</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
